--- a/media/offers/30/offer_C-1-102.xlsx
+++ b/media/offers/30/offer_C-1-102.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00538DD5"/>
         <bgColor rgb="00538DD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -101,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -117,6 +123,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C3:I28"/>
+  <dimension ref="C3:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +573,7 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
@@ -582,60 +591,128 @@
       <c r="I8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SUBTOTAL ( USD)</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="25" customHeight="1">
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>INTRUEMENTOS / COFRES</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="6" t="n"/>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>TAB CONT 01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPCIÓN</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>VALOR UNITARIO (USD)</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>F4-CGM09090</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Modulo de Control FACILITY EXPLORER F4-CGM09090-0</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>SUBTOTAL ( USD )</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="25" customHeight="1">
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>INGENIERÍA / PROGRAMACIÓN / PUESTA EN OPERACIÓN</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="6" t="n"/>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>TAB CONT 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPCIÓN</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>VALOR UNITARIO (USD)</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>TAB CONT 03</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="C15" s="2" t="inlineStr">
@@ -675,110 +752,163 @@
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>INGENIERÍA Y PROGRAMACIÓN</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Ingeniería de Detalle; Layout; Unifilares y Supervisión. programación de controladores; Planos de taller (Unifilar; Layout tablero; ingeniería de detalle; Manual de operación) Interfaz Grafica</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>TAB CONT SUPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPCIÓN</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>VALOR UNITARIO (USD)</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>FX-SC8D005M1-0</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Mantenimiento de software inicial de 1 año para el controlador de supervisión FX80 con capacidad de 5–9 dispositivos</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>UND</t>
         </is>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="2" t="n">
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>PUESTA EN OPERACIÓN DE PROYECTO</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Ajuste de parámetro de operación en sitio; Pruebas y Arranque.</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>FX80</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>MODULO SUPERVISOR JC FX80</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>UND</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>SUBTOTAL ( USD)</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>SUBTOTAL SUMINISTROS Y DESARROLLO ( USD )</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n">
-        <v>0</v>
+      <c r="C20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>FX-SC8BASE-0</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Controlador de supervisión FX80 y tarjeta micro Secure Digital (SD)</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>DESCUENTO</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0</v>
+      <c r="C21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>FX-SC8CL010-0</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>FX80 Supervisory Controller core device license; 10 field devices; 500 points</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -786,127 +916,772 @@
       <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>SUBTOTAL MENOS (-) DESCUENTO</t>
+          <t>SUBTOTAL ( USD)</t>
         </is>
       </c>
       <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" ht="25" customHeight="1">
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>INTRUEMENTOS / COFRES</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
+      <c r="I24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>TAB CONT 01</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPCIÓN</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>VALOR UNITARIO (USD)</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>CO5050</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>COFRE METALICO DE 50cm x 50cm x 15cm</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>TR40VA004</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>TRANFORMADOR 40 VA (TR40VA004)</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>TAB CONT 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPCIÓN</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>VALOR UNITARIO (USD)</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>CO5050</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>COFRE METALICO DE 50cm x 50cm x 15cm</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>TR40VA004</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>TRANFORMADOR 40 VA (TR40VA004)</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>TAB CONT 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPCIÓN</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>VALOR UNITARIO (USD)</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>CO5050</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>COFRE METALICO DE 50cm x 50cm x 15cm</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>TR40VA004</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>TRANFORMADOR 40 VA (TR40VA004)</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t>TAB CONT SUPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPCIÓN</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>VALOR UNITARIO (USD)</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>TR40VA004</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>TRANFORMADOR 40 VA (TR40VA004)</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>SUBTOTAL ( USD )</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="42" ht="25" customHeight="1">
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>INGENIERÍA / PROGRAMACIÓN / PUESTA EN OPERACIÓN</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n"/>
+      <c r="E42" s="5" t="n"/>
+      <c r="F42" s="5" t="n"/>
+      <c r="G42" s="5" t="n"/>
+      <c r="H42" s="5" t="n"/>
+      <c r="I42" s="6" t="n"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>MODELO</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>DESCRIPCIÓN</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>CANTIDAD</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>VALOR UNITARIO (USD)</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>INGENIERÍA Y PROGRAMACIÓN</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Ingeniería de Detalle; Layout; Unifilares y Supervisión. programación de controladores; Planos de taller (Unifilar; Layout tablero; ingeniería de detalle; Manual de operación) Interfaz Grafica</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>863.23</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>863.23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>PUESTA EN OPERACIÓN DE PROYECTO</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Ajuste de parámetro de operación en sitio; Pruebas y Arranque.</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>1294.84</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1294.84</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>INGENIERÍA Y PROGRAMACIÓN</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>Ingeniería de Detalle; Layout; Unifilares y Supervisión. programación de controladores; Planos de taller (Unifilar; Layout tablero; ingeniería de detalle; Manual de operación) Interfaz Grafica</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>808.8</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>808.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>PUESTA EN OPERACIÓN DE PROYECTO</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Ajuste de parámetro de operación en sitio; Pruebas y Arranque.</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>1213.2</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1213.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>SUBTOTAL ( USD)</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="2" t="n"/>
+      <c r="I48" s="2" t="n">
+        <v>4180.07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>SUBTOTAL SUMINISTROS Y DESARROLLO ( USD )</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="2" t="n"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>DESCUENTO</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="inlineStr">
+    <row r="52">
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>SUBTOTAL MENOS (-) DESCUENTO</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n"/>
+      <c r="G52" s="2" t="n"/>
+      <c r="H52" s="2" t="n"/>
+      <c r="I52" s="2" t="n">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="2" t="n"/>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>ADMINISTRACIÓN</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>7.0%</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>707.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>IMPREVISTROS</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>303.3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="2" t="n"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>UTILIDADES</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>8.0%</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>808.8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>SUBTOTAL COSTO DIRECTO + INDIRECTO</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n">
+        <v>11929.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>IVA/UTILIDAD</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>2266.662</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>VALOR TOTAL (USD) DÓLAR ESTADOUNIDENSE</t>
         </is>
       </c>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n">
-        <v>0</v>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n">
+        <v>14196.46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
     <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C37:I37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -930,7 +1705,7 @@
   </cols>
   <sheetData>
     <row r="5">
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>ALCANCES</t>
         </is>
@@ -952,7 +1727,7 @@
     <row r="19"/>
     <row r="20"/>
     <row r="23">
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>NO INCLUYE</t>
         </is>
@@ -996,7 +1771,7 @@
     <row r="59"/>
     <row r="60"/>
     <row r="63">
-      <c r="C63" s="7" t="inlineStr">
+      <c r="C63" s="8" t="inlineStr">
         <is>
           <t>CONDICIONES COMERCIALES</t>
         </is>
@@ -1025,7 +1800,7 @@
     <row r="84"/>
     <row r="85"/>
     <row r="88">
-      <c r="C88" s="7" t="inlineStr">
+      <c r="C88" s="8" t="inlineStr">
         <is>
           <t>NOTAS Y ACLARACIONES</t>
         </is>
